--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="HERRERA  2022   " sheetId="1" r:id="rId1"/>
@@ -545,18 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +584,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,28 +889,28 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -916,10 +919,10 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -930,19 +933,19 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -952,18 +955,18 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>44564</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>40138.800000000003</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -972,18 +975,18 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>44578</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>15569.13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -992,18 +995,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>44580</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>26074.33</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1012,18 +1015,18 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>44583</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>33582.6</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1032,18 +1035,18 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>44588</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>18822.27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1052,18 +1055,18 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>44590</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>15555.6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1072,18 +1075,18 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>44593</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>19864.8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1092,18 +1095,18 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>44594</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>15605.4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1112,18 +1115,18 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>44597</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>17521</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1132,18 +1135,18 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>44599</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <v>10349</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1152,18 +1155,18 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>44601</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>11512</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1172,18 +1175,18 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>44606</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>31824</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1192,18 +1195,18 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>44618</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>36116</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1212,18 +1215,18 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>44621</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>39334</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1232,18 +1235,18 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>44627</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>35379</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1252,18 +1255,18 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>44636</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>33561</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1272,18 +1275,18 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>44638</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>24943</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1292,18 +1295,18 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>44643</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>17380</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1312,18 +1315,18 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>44649</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <v>20994</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1332,18 +1335,18 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>44652</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>29872</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1352,18 +1355,18 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>44656</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <v>33148</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1372,18 +1375,18 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>44659</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <v>35233</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1392,18 +1395,18 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="8">
         <v>44664</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <v>20024</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1412,18 +1415,18 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="8">
         <v>44664</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>38349</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1432,18 +1435,18 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="8">
         <v>44669</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="20">
         <v>31463</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1452,18 +1455,18 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="8">
         <v>44673</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <v>38098.769999999997</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1472,18 +1475,18 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="8">
         <v>44678</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="20">
         <v>24219.99</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1492,18 +1495,18 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="8">
         <v>44681</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <v>19277.04</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1512,18 +1515,18 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="8">
         <v>44684</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <v>16937.91</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1532,18 +1535,18 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="8">
         <v>44686</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>13455.16</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1552,18 +1555,18 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="8">
         <v>44688</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="20">
         <v>20823.53</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1572,18 +1575,18 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="8">
         <v>44691</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="20">
         <v>28096.6</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1592,18 +1595,18 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="8">
         <v>44698</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="20">
         <v>29454.5</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1612,18 +1615,18 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="8">
         <v>44702</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="20">
         <v>30148.41</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1632,17 +1635,17 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="8">
         <v>44706</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="20">
         <v>21977</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1652,17 +1655,17 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="8">
         <v>44707</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="20">
         <v>14750.36</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1672,17 +1675,17 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="8">
         <v>44709</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="20">
         <v>13138.52</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1692,16 +1695,16 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="8">
         <v>44713</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="20">
         <v>17975.900000000001</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1712,16 +1715,16 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="8">
         <v>44715</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="20">
         <v>23680</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1732,16 +1735,16 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="8">
         <v>44716</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="20">
         <v>24829.22</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1752,16 +1755,16 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="8">
         <v>44720</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="20">
         <v>26792.48</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1772,16 +1775,16 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="8">
         <v>44722</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="20">
         <v>8155.8</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1792,16 +1795,16 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="8">
         <v>44723</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="20">
         <v>13317.92</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1812,16 +1815,16 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="8">
         <v>44726</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="20">
         <v>24345.05</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1832,16 +1835,16 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48" s="8">
         <v>44729</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="20">
         <v>14758</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1852,16 +1855,16 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="8">
         <v>44732</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="20">
         <v>16859.84</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1872,16 +1875,16 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="8">
         <v>44732</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="20">
         <v>20117.64</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1892,16 +1895,16 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="8">
         <v>44737</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="20">
         <v>25238.44</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1912,16 +1915,16 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="8">
         <v>44742</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="20">
         <v>32734.5</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1932,16 +1935,16 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53" s="8">
         <v>44745</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="20">
         <v>14718.16</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1952,16 +1955,16 @@
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54" s="8">
         <v>44750</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="20">
         <v>19293.55</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1972,16 +1975,16 @@
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="8">
         <v>44754</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="20">
         <v>24376.05</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1992,16 +1995,16 @@
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56" s="8">
         <v>44754</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="20">
         <v>18770.759999999998</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="8"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2012,16 +2015,16 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="8">
         <v>44763</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="20">
         <v>13044</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2032,16 +2035,16 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="8">
         <v>44766</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="20">
         <v>34589</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2052,640 +2055,640 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="8">
         <v>44771</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="20">
         <v>11933</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60" s="8">
         <v>44775</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="20">
         <v>13134</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="8">
         <v>44777</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="20">
         <v>13453</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="8">
         <v>44778</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="20">
         <v>31894</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="8">
         <v>44782</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="20">
         <v>14171</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="8">
         <v>44783</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="20">
         <v>25448</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="8">
         <v>44787</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="20">
         <v>12600</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66" s="8">
         <v>44789</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="20">
         <v>18278</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2704,28 +2707,28 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2734,10 +2737,10 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2748,19 +2751,19 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2770,18 +2773,18 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>44565</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>18857.5</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2790,18 +2793,18 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>44569</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>13047.5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2810,18 +2813,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>44572</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>63027.199999999997</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2830,18 +2833,18 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>44579</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>26074.33</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2850,18 +2853,18 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>44586</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>24096.799999999999</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2870,18 +2873,18 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>44590</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>20930</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2890,18 +2893,18 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>44606</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>22692</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2910,18 +2913,18 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>44609</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>18675</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2930,18 +2933,18 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>44612</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>24401</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2950,18 +2953,18 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>44613</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <v>40355</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2970,18 +2973,18 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>44622</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>22248</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2990,18 +2993,18 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>44631</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>34686</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3010,18 +3013,18 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>44638</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>10129</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3030,18 +3033,18 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>44644</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>9396</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3050,18 +3053,18 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>44664</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>9900</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3070,18 +3073,18 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>44686</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>7932</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3090,18 +3093,18 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>44691</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>9168</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3110,18 +3113,18 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>44694</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>18394.86</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3130,18 +3133,18 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>44699</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <v>14715</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3150,18 +3153,18 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>44702</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>7200</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3170,18 +3173,18 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>44707</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <v>9636</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3190,18 +3193,18 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>44711</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <v>7164</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3210,18 +3213,18 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="8">
         <v>44718</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <v>6732</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3230,18 +3233,18 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="8">
         <v>44725</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>6120</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3250,18 +3253,18 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="8">
         <v>44729</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="20">
         <v>29373</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3270,18 +3273,18 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="8">
         <v>44740</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <v>22409.1</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3290,18 +3293,18 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="8">
         <v>44747</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="20">
         <v>38828.6</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3310,18 +3313,18 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="8">
         <v>44757</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <v>19971</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3330,18 +3333,18 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="8">
         <v>44760</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <v>21114</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3350,18 +3353,18 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="8">
         <v>44785</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>29164</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3370,12 +3373,12 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3384,12 +3387,12 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3398,12 +3401,12 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3412,12 +3415,12 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3426,11 +3429,11 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3440,11 +3443,11 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3454,11 +3457,11 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3468,10 +3471,10 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3482,10 +3485,10 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3496,10 +3499,10 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3510,10 +3513,10 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3524,10 +3527,10 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3538,10 +3541,10 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3552,10 +3555,10 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3566,10 +3569,10 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3580,10 +3583,10 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3594,10 +3597,10 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3608,10 +3611,10 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3622,10 +3625,10 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3636,10 +3639,10 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3650,10 +3653,10 @@
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3664,10 +3667,10 @@
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3678,10 +3681,10 @@
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3692,10 +3695,10 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3706,10 +3709,10 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3720,592 +3723,592 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>FECHA</t>
   </si>
@@ -323,16 +323,33 @@
   </si>
   <si>
     <t>25805/*D100</t>
+  </si>
+  <si>
+    <t>A-1121</t>
+  </si>
+  <si>
+    <t>A-1123</t>
+  </si>
+  <si>
+    <t>A-1124</t>
+  </si>
+  <si>
+    <t>A-1125</t>
+  </si>
+  <si>
+    <t>A-1127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,8 +411,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -586,6 +632,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,9 +644,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -608,6 +671,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -890,8 +954,8 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -899,18 +963,21 @@
     <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -922,7 +989,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="15"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -942,7 +1009,7 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6"/>
@@ -964,7 +1031,7 @@
       <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="1"/>
@@ -984,7 +1051,7 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
@@ -1004,7 +1071,7 @@
       <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
@@ -1024,7 +1091,7 @@
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
@@ -1044,7 +1111,7 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
@@ -1064,7 +1131,7 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
@@ -1084,7 +1151,7 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
@@ -1104,7 +1171,7 @@
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
@@ -1124,7 +1191,7 @@
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
@@ -1144,7 +1211,7 @@
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
@@ -1164,7 +1231,7 @@
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
@@ -1184,7 +1251,7 @@
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
@@ -1204,7 +1271,7 @@
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
@@ -1224,7 +1291,7 @@
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
@@ -1244,7 +1311,7 @@
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
@@ -1264,7 +1331,7 @@
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="1"/>
@@ -1284,7 +1351,7 @@
       <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
@@ -1304,7 +1371,7 @@
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
@@ -1324,7 +1391,7 @@
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
@@ -1344,7 +1411,7 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
@@ -1364,7 +1431,7 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
@@ -1384,7 +1451,7 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
@@ -1404,7 +1471,7 @@
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
@@ -1424,7 +1491,7 @@
       <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="1"/>
@@ -1444,7 +1511,7 @@
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1464,7 +1531,7 @@
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1484,7 +1551,7 @@
       <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1504,7 +1571,7 @@
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1524,7 +1591,7 @@
       <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -1544,7 +1611,7 @@
       <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="5"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -1564,7 +1631,7 @@
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="5"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -1584,7 +1651,7 @@
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="5"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -1604,7 +1671,7 @@
       <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -1624,7 +1691,7 @@
       <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -1644,7 +1711,7 @@
       <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1664,7 +1731,7 @@
       <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1684,7 +1751,7 @@
       <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1704,7 +1771,7 @@
       <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1724,7 +1791,7 @@
       <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1744,7 +1811,7 @@
       <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1764,7 +1831,7 @@
       <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1784,7 +1851,7 @@
       <c r="C45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1804,7 +1871,7 @@
       <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1824,7 +1891,7 @@
       <c r="C47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1844,7 +1911,7 @@
       <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1864,7 +1931,7 @@
       <c r="C49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1884,7 +1951,7 @@
       <c r="C50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1904,7 +1971,7 @@
       <c r="C51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1924,7 +1991,7 @@
       <c r="C52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1944,7 +2011,7 @@
       <c r="C53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1964,7 +2031,7 @@
       <c r="C54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1984,7 +2051,7 @@
       <c r="C55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2004,7 +2071,7 @@
       <c r="C56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2024,7 +2091,7 @@
       <c r="C57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2041,10 +2108,10 @@
       <c r="B58" s="20">
         <v>34589</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2064,7 +2131,7 @@
       <c r="C59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -2081,10 +2148,10 @@
       <c r="B60" s="20">
         <v>13134</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2101,10 +2168,10 @@
       <c r="B61" s="20">
         <v>13453</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2121,10 +2188,10 @@
       <c r="B62" s="20">
         <v>31894</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2144,7 +2211,7 @@
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -2161,10 +2228,10 @@
       <c r="B64" s="20">
         <v>25448</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2181,10 +2248,10 @@
       <c r="B65" s="20">
         <v>12600</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2201,10 +2268,10 @@
       <c r="B66" s="20">
         <v>18278</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2215,13 +2282,21 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="A67" s="29">
+        <v>44793</v>
+      </c>
+      <c r="B67" s="30">
+        <v>35436</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="37">
+        <v>44832</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -2229,13 +2304,21 @@
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="A68" s="29">
+        <v>44817</v>
+      </c>
+      <c r="B68" s="30">
+        <v>31978</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="37">
+        <v>44832</v>
+      </c>
+      <c r="E68" s="28"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -2243,13 +2326,19 @@
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="A69" s="29">
+        <v>44821</v>
+      </c>
+      <c r="B69" s="30">
+        <v>27853.040000000001</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="20"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -2257,13 +2346,19 @@
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="A70" s="29">
+        <v>44826</v>
+      </c>
+      <c r="B70" s="30">
+        <v>17787.54</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="20"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -2271,13 +2366,19 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="A71" s="29">
+        <v>44828</v>
+      </c>
+      <c r="B71" s="30">
+        <v>11623.2</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="37"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="20"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -2288,7 +2389,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="20"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -2302,7 +2403,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="20"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2316,7 +2417,7 @@
       <c r="A74" s="8"/>
       <c r="B74" s="20"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -2330,7 +2431,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="20"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -2344,7 +2445,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="20"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -2358,7 +2459,7 @@
       <c r="A77" s="8"/>
       <c r="B77" s="20"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -2372,7 +2473,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="20"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -2386,7 +2487,7 @@
       <c r="A79" s="8"/>
       <c r="B79" s="20"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -2400,7 +2501,7 @@
       <c r="A80" s="8"/>
       <c r="B80" s="20"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2414,7 +2515,7 @@
       <c r="A81" s="8"/>
       <c r="B81" s="20"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="37"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2428,7 +2529,7 @@
       <c r="A82" s="8"/>
       <c r="B82" s="20"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2442,7 +2543,7 @@
       <c r="A83" s="8"/>
       <c r="B83" s="20"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2456,7 +2557,7 @@
       <c r="A84" s="8"/>
       <c r="B84" s="20"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2470,7 +2571,7 @@
       <c r="A85" s="8"/>
       <c r="B85" s="20"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2484,7 +2585,7 @@
       <c r="A86" s="8"/>
       <c r="B86" s="20"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -2498,7 +2599,7 @@
       <c r="A87" s="8"/>
       <c r="B87" s="20"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -2512,7 +2613,7 @@
       <c r="A88" s="8"/>
       <c r="B88" s="20"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2526,7 +2627,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="20"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -2540,7 +2641,7 @@
       <c r="A90" s="8"/>
       <c r="B90" s="20"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2554,7 +2655,7 @@
       <c r="A91" s="8"/>
       <c r="B91" s="20"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -2568,7 +2669,7 @@
       <c r="A92" s="8"/>
       <c r="B92" s="20"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -2582,7 +2683,7 @@
       <c r="A93" s="8"/>
       <c r="B93" s="20"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -2596,7 +2697,7 @@
       <c r="A94" s="8"/>
       <c r="B94" s="20"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -2610,7 +2711,7 @@
       <c r="A95" s="8"/>
       <c r="B95" s="20"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -2624,7 +2725,7 @@
       <c r="A96" s="8"/>
       <c r="B96" s="20"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -2638,7 +2739,7 @@
       <c r="A97" s="8"/>
       <c r="B97" s="20"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -2652,7 +2753,7 @@
       <c r="A98" s="8"/>
       <c r="B98" s="20"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -2666,7 +2767,7 @@
       <c r="A99" s="8"/>
       <c r="B99" s="20"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -2680,7 +2781,7 @@
       <c r="A100" s="8"/>
       <c r="B100" s="20"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -2722,13 +2823,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
@@ -635,15 +635,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -661,6 +652,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -955,7 +955,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -963,7 +963,7 @@
     <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15" style="38" customWidth="1"/>
+    <col min="4" max="4" width="15" style="35" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -971,13 +971,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -989,7 +989,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="15"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="33"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1009,7 +1009,7 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6"/>
@@ -1031,7 +1031,7 @@
       <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="1"/>
@@ -1051,7 +1051,7 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
@@ -1071,7 +1071,7 @@
       <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
@@ -1091,7 +1091,7 @@
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
@@ -1111,7 +1111,7 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
@@ -1151,7 +1151,7 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
@@ -1171,7 +1171,7 @@
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
@@ -1231,7 +1231,7 @@
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
@@ -1251,7 +1251,7 @@
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
@@ -1271,7 +1271,7 @@
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
@@ -1311,7 +1311,7 @@
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
@@ -1371,7 +1371,7 @@
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
@@ -1391,7 +1391,7 @@
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
@@ -1411,7 +1411,7 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
@@ -1451,7 +1451,7 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
@@ -1471,7 +1471,7 @@
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="1"/>
@@ -1511,7 +1511,7 @@
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1531,7 +1531,7 @@
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1571,7 +1571,7 @@
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1591,7 +1591,7 @@
       <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -1631,7 +1631,7 @@
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="5"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -1671,7 +1671,7 @@
       <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1731,7 +1731,7 @@
       <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1751,7 +1751,7 @@
       <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="35"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1771,7 +1771,7 @@
       <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1791,7 +1791,7 @@
       <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1811,7 +1811,7 @@
       <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="35"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1831,7 +1831,7 @@
       <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="35"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1851,7 +1851,7 @@
       <c r="C45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="35"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1891,7 +1891,7 @@
       <c r="C47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="35"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1911,7 +1911,7 @@
       <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="35"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1931,7 +1931,7 @@
       <c r="C49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="35"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="C50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="35"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1971,7 +1971,7 @@
       <c r="C51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="35"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1991,7 +1991,7 @@
       <c r="C52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="35"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2011,7 +2011,7 @@
       <c r="C53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="35"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2031,7 +2031,7 @@
       <c r="C54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="35"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="C55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="35"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2071,7 +2071,7 @@
       <c r="C56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="35"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="C57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="35"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2111,7 +2111,7 @@
       <c r="C58" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="35"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2131,7 +2131,7 @@
       <c r="C59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="35"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -2151,7 +2151,7 @@
       <c r="C60" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="35"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2171,7 +2171,7 @@
       <c r="C61" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="37"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2191,7 +2191,7 @@
       <c r="C62" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="37"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2211,7 +2211,7 @@
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -2231,7 +2231,7 @@
       <c r="C64" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="37"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2251,7 +2251,7 @@
       <c r="C65" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2271,7 +2271,7 @@
       <c r="C66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2282,19 +2282,19 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29">
+      <c r="A67" s="26">
         <v>44793</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="27">
         <v>35436</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="34">
         <v>44832</v>
       </c>
-      <c r="E67" s="28"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="4"/>
       <c r="G67" s="20"/>
       <c r="H67" s="5"/>
@@ -2304,19 +2304,19 @@
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29">
+      <c r="A68" s="26">
         <v>44817</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="27">
         <v>31978</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="34">
         <v>44832</v>
       </c>
-      <c r="E68" s="28"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="4"/>
       <c r="G68" s="20"/>
       <c r="H68" s="5"/>
@@ -2326,17 +2326,19 @@
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29">
+      <c r="A69" s="26">
         <v>44821</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="27">
         <v>27853.040000000001</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="28"/>
+      <c r="D69" s="34">
+        <v>44834</v>
+      </c>
+      <c r="E69" s="25"/>
       <c r="F69" s="4"/>
       <c r="G69" s="20"/>
       <c r="H69" s="5"/>
@@ -2346,17 +2348,19 @@
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29">
+      <c r="A70" s="26">
         <v>44826</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="27">
         <v>17787.54</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="28"/>
+      <c r="D70" s="34">
+        <v>44834</v>
+      </c>
+      <c r="E70" s="25"/>
       <c r="F70" s="4"/>
       <c r="G70" s="20"/>
       <c r="H70" s="5"/>
@@ -2366,17 +2370,19 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29">
+      <c r="A71" s="26">
         <v>44828</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="27">
         <v>11623.2</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="28"/>
+      <c r="D71" s="34">
+        <v>44834</v>
+      </c>
+      <c r="E71" s="25"/>
       <c r="F71" s="4"/>
       <c r="G71" s="20"/>
       <c r="H71" s="5"/>
@@ -2389,7 +2395,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="20"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="37"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -2403,7 +2409,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="20"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="37"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2417,7 +2423,7 @@
       <c r="A74" s="8"/>
       <c r="B74" s="20"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -2431,7 +2437,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="20"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="37"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -2445,7 +2451,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="20"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -2459,7 +2465,7 @@
       <c r="A77" s="8"/>
       <c r="B77" s="20"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="37"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -2473,7 +2479,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="20"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="37"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -2487,7 +2493,7 @@
       <c r="A79" s="8"/>
       <c r="B79" s="20"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="37"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -2501,7 +2507,7 @@
       <c r="A80" s="8"/>
       <c r="B80" s="20"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="37"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2515,7 +2521,7 @@
       <c r="A81" s="8"/>
       <c r="B81" s="20"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="37"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2529,7 +2535,7 @@
       <c r="A82" s="8"/>
       <c r="B82" s="20"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="37"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2543,7 +2549,7 @@
       <c r="A83" s="8"/>
       <c r="B83" s="20"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="35"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2557,7 +2563,7 @@
       <c r="A84" s="8"/>
       <c r="B84" s="20"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="35"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2571,7 +2577,7 @@
       <c r="A85" s="8"/>
       <c r="B85" s="20"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="35"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2585,7 +2591,7 @@
       <c r="A86" s="8"/>
       <c r="B86" s="20"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="35"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -2599,7 +2605,7 @@
       <c r="A87" s="8"/>
       <c r="B87" s="20"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="35"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -2613,7 +2619,7 @@
       <c r="A88" s="8"/>
       <c r="B88" s="20"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="35"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2627,7 +2633,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="20"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="35"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -2641,7 +2647,7 @@
       <c r="A90" s="8"/>
       <c r="B90" s="20"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="35"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2655,7 +2661,7 @@
       <c r="A91" s="8"/>
       <c r="B91" s="20"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="35"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -2669,7 +2675,7 @@
       <c r="A92" s="8"/>
       <c r="B92" s="20"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="35"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -2683,7 +2689,7 @@
       <c r="A93" s="8"/>
       <c r="B93" s="20"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="35"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -2697,7 +2703,7 @@
       <c r="A94" s="8"/>
       <c r="B94" s="20"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="35"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -2711,7 +2717,7 @@
       <c r="A95" s="8"/>
       <c r="B95" s="20"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="35"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -2725,7 +2731,7 @@
       <c r="A96" s="8"/>
       <c r="B96" s="20"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="35"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -2739,7 +2745,7 @@
       <c r="A97" s="8"/>
       <c r="B97" s="20"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="35"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -2753,7 +2759,7 @@
       <c r="A98" s="8"/>
       <c r="B98" s="20"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="35"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -2767,7 +2773,7 @@
       <c r="A99" s="8"/>
       <c r="B99" s="20"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="35"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -2781,7 +2787,7 @@
       <c r="A100" s="8"/>
       <c r="B100" s="20"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="35"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -2823,13 +2829,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/MIGUEL HERRERA 2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>FECHA</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>A-1127</t>
+  </si>
+  <si>
+    <t>A-1146</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2392,9 +2395,15 @@
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="8">
+        <v>44837</v>
+      </c>
+      <c r="B72" s="20">
+        <v>23123.09</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D72" s="34"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
